--- a/interview/AngularQuestions_updated.xlsx
+++ b/interview/AngularQuestions_updated.xlsx
@@ -959,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA1002"/>
+  <dimension ref="A1:AA1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -1004,9 +1004,7 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1036,7 +1034,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1067,7 +1065,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1098,7 +1096,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1129,7 +1127,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1159,8 +1157,8 @@
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="13" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1190,8 +1188,8 @@
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1222,7 +1220,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1253,7 +1251,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1284,7 +1282,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1314,8 +1312,8 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="13" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1345,8 +1343,8 @@
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1377,7 +1375,7 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1408,7 +1406,7 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1439,7 +1437,7 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1470,7 +1468,7 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1501,7 +1499,7 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -1532,7 +1530,7 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -1563,7 +1561,7 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -1594,7 +1592,7 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -1624,8 +1622,8 @@
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1656,7 +1654,7 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1686,8 +1684,8 @@
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
+      <c r="A24" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1718,7 +1716,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1749,7 +1747,7 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1780,7 +1778,7 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1810,8 +1808,8 @@
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="16" t="s">
-        <v>27</v>
+      <c r="A28" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1841,8 +1839,8 @@
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
+      <c r="A29" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1873,7 +1871,7 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1904,7 +1902,7 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1935,7 +1933,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1966,7 +1964,7 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1996,8 +1994,8 @@
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="13" t="s">
-        <v>33</v>
+      <c r="A34" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2027,8 +2025,8 @@
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
+      <c r="A35" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2059,7 +2057,7 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2090,7 +2088,7 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2121,7 +2119,7 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2151,8 +2149,8 @@
       <c r="AA38" s="2"/>
     </row>
     <row r="39" spans="1:27">
-      <c r="A39" s="13" t="s">
-        <v>38</v>
+      <c r="A39" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2182,8 +2180,8 @@
       <c r="AA39" s="2"/>
     </row>
     <row r="40" spans="1:27">
-      <c r="A40" s="2" t="s">
-        <v>39</v>
+      <c r="A40" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2214,7 +2212,7 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2245,7 +2243,7 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2276,7 +2274,7 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2307,7 +2305,7 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2338,7 +2336,7 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2369,7 +2367,7 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2400,7 +2398,7 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2431,7 +2429,7 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2462,7 +2460,7 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2493,7 +2491,7 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2524,7 +2522,7 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2555,7 +2553,7 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2586,7 +2584,7 @@
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2617,7 +2615,7 @@
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2648,7 +2646,7 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2679,7 +2677,7 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2710,7 +2708,7 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2741,7 +2739,7 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="2" t="s">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2772,7 +2770,7 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2803,7 +2801,7 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2833,7 +2831,9 @@
       <c r="AA60" s="2"/>
     </row>
     <row r="61" spans="1:27">
-      <c r="A61" s="4"/>
+      <c r="A61" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -2862,9 +2862,7 @@
       <c r="AA61" s="4"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A62" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2893,7 +2891,9 @@
       <c r="AA62" s="2"/>
     </row>
     <row r="63" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A63" s="5"/>
+      <c r="A63" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="B63" s="5"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2921,10 +2921,8 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="1:27">
-      <c r="A64" s="2" t="s">
-        <v>58</v>
-      </c>
+    <row r="64" spans="1:27" ht="15.75">
+      <c r="A64" s="5"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2954,7 +2952,7 @@
     </row>
     <row r="65" spans="1:27">
       <c r="A65" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2985,7 +2983,7 @@
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3016,7 +3014,7 @@
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3046,8 +3044,8 @@
       <c r="AA67" s="2"/>
     </row>
     <row r="68" spans="1:27">
-      <c r="A68" s="13" t="s">
-        <v>62</v>
+      <c r="A68" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3077,8 +3075,8 @@
       <c r="AA68" s="2"/>
     </row>
     <row r="69" spans="1:27">
-      <c r="A69" s="2" t="s">
-        <v>63</v>
+      <c r="A69" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3108,8 +3106,8 @@
       <c r="AA69" s="2"/>
     </row>
     <row r="70" spans="1:27">
-      <c r="A70" s="13" t="s">
-        <v>64</v>
+      <c r="A70" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3139,8 +3137,8 @@
       <c r="AA70" s="2"/>
     </row>
     <row r="71" spans="1:27">
-      <c r="A71" s="2" t="s">
-        <v>65</v>
+      <c r="A71" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3170,8 +3168,8 @@
       <c r="AA71" s="2"/>
     </row>
     <row r="72" spans="1:27">
-      <c r="A72" s="13" t="s">
-        <v>66</v>
+      <c r="A72" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3201,8 +3199,8 @@
       <c r="AA72" s="2"/>
     </row>
     <row r="73" spans="1:27">
-      <c r="A73" s="2" t="s">
-        <v>67</v>
+      <c r="A73" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3233,7 +3231,7 @@
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3264,7 +3262,7 @@
     </row>
     <row r="75" spans="1:27">
       <c r="A75" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3295,7 +3293,7 @@
     </row>
     <row r="76" spans="1:27">
       <c r="A76" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3326,7 +3324,7 @@
     </row>
     <row r="77" spans="1:27">
       <c r="A77" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3357,7 +3355,7 @@
     </row>
     <row r="78" spans="1:27">
       <c r="A78" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3388,7 +3386,7 @@
     </row>
     <row r="79" spans="1:27">
       <c r="A79" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3418,8 +3416,8 @@
       <c r="AA79" s="2"/>
     </row>
     <row r="80" spans="1:27">
-      <c r="A80" s="13" t="s">
-        <v>74</v>
+      <c r="A80" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3449,8 +3447,8 @@
       <c r="AA80" s="2"/>
     </row>
     <row r="81" spans="1:27">
-      <c r="A81" s="2" t="s">
-        <v>75</v>
+      <c r="A81" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3481,7 +3479,7 @@
     </row>
     <row r="82" spans="1:27">
       <c r="A82" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3511,8 +3509,8 @@
       <c r="AA82" s="2"/>
     </row>
     <row r="83" spans="1:27">
-      <c r="A83" s="13" t="s">
-        <v>77</v>
+      <c r="A83" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3542,8 +3540,8 @@
       <c r="AA83" s="2"/>
     </row>
     <row r="84" spans="1:27">
-      <c r="A84" s="2" t="s">
-        <v>78</v>
+      <c r="A84" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3574,7 +3572,7 @@
     </row>
     <row r="85" spans="1:27">
       <c r="A85" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3605,7 +3603,7 @@
     </row>
     <row r="86" spans="1:27">
       <c r="A86" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3635,8 +3633,8 @@
       <c r="AA86" s="2"/>
     </row>
     <row r="87" spans="1:27">
-      <c r="A87" s="13" t="s">
-        <v>81</v>
+      <c r="A87" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3666,8 +3664,8 @@
       <c r="AA87" s="2"/>
     </row>
     <row r="88" spans="1:27">
-      <c r="A88" s="2" t="s">
-        <v>82</v>
+      <c r="A88" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3698,7 +3696,7 @@
     </row>
     <row r="89" spans="1:27">
       <c r="A89" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3729,7 +3727,7 @@
     </row>
     <row r="90" spans="1:27">
       <c r="A90" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3760,7 +3758,7 @@
     </row>
     <row r="91" spans="1:27">
       <c r="A91" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3790,8 +3788,8 @@
       <c r="AA91" s="2"/>
     </row>
     <row r="92" spans="1:27">
-      <c r="A92" s="13" t="s">
-        <v>86</v>
+      <c r="A92" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3821,8 +3819,8 @@
       <c r="AA92" s="2"/>
     </row>
     <row r="93" spans="1:27">
-      <c r="A93" s="6" t="s">
-        <v>87</v>
+      <c r="A93" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -3853,7 +3851,7 @@
     </row>
     <row r="94" spans="1:27">
       <c r="A94" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="2"/>
@@ -3883,8 +3881,8 @@
       <c r="AA94" s="2"/>
     </row>
     <row r="95" spans="1:27">
-      <c r="A95" s="13" t="s">
-        <v>89</v>
+      <c r="A95" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3914,8 +3912,8 @@
       <c r="AA95" s="2"/>
     </row>
     <row r="96" spans="1:27">
-      <c r="A96" s="2" t="s">
-        <v>90</v>
+      <c r="A96" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3945,8 +3943,8 @@
       <c r="AA96" s="2"/>
     </row>
     <row r="97" spans="1:27">
-      <c r="A97" s="13" t="s">
-        <v>91</v>
+      <c r="A97" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3976,8 +3974,8 @@
       <c r="AA97" s="2"/>
     </row>
     <row r="98" spans="1:27">
-      <c r="A98" s="2" t="s">
-        <v>92</v>
+      <c r="A98" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4007,8 +4005,8 @@
       <c r="AA98" s="2"/>
     </row>
     <row r="99" spans="1:27" s="14" customFormat="1">
-      <c r="A99" s="13" t="s">
-        <v>93</v>
+      <c r="A99" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -4038,8 +4036,8 @@
       <c r="AA99" s="13"/>
     </row>
     <row r="100" spans="1:27">
-      <c r="A100" s="2" t="s">
-        <v>94</v>
+      <c r="A100" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4069,7 +4067,9 @@
       <c r="AA100" s="2"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A101" s="7"/>
+      <c r="A101" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="B101" s="7"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4097,10 +4097,8 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102" spans="1:27">
-      <c r="A102" s="2" t="s">
-        <v>95</v>
-      </c>
+    <row r="102" spans="1:27" ht="15.75">
+      <c r="A102" s="7"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4130,7 +4128,7 @@
     </row>
     <row r="103" spans="1:27">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4161,7 +4159,7 @@
     </row>
     <row r="104" spans="1:27">
       <c r="A104" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4192,7 +4190,7 @@
     </row>
     <row r="105" spans="1:27">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4223,7 +4221,7 @@
     </row>
     <row r="106" spans="1:27">
       <c r="A106" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4253,7 +4251,9 @@
       <c r="AA106" s="2"/>
     </row>
     <row r="107" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A107" s="7"/>
+      <c r="A107" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="B107" s="7"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -4281,10 +4281,8 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
     </row>
-    <row r="108" spans="1:27">
-      <c r="A108" s="2" t="s">
-        <v>100</v>
-      </c>
+    <row r="108" spans="1:27" ht="15.75">
+      <c r="A108" s="7"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -4314,7 +4312,7 @@
     </row>
     <row r="109" spans="1:27">
       <c r="A109" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4345,7 +4343,7 @@
     </row>
     <row r="110" spans="1:27">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4375,8 +4373,8 @@
       <c r="AA110" s="2"/>
     </row>
     <row r="111" spans="1:27" s="14" customFormat="1">
-      <c r="A111" s="13" t="s">
-        <v>103</v>
+      <c r="A111" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -4407,7 +4405,7 @@
     </row>
     <row r="112" spans="1:27" s="14" customFormat="1">
       <c r="A112" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -4437,8 +4435,8 @@
       <c r="AA112" s="13"/>
     </row>
     <row r="113" spans="1:27">
-      <c r="A113" s="2" t="s">
-        <v>105</v>
+      <c r="A113" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4468,8 +4466,8 @@
       <c r="AA113" s="2"/>
     </row>
     <row r="114" spans="1:27" s="14" customFormat="1">
-      <c r="A114" s="13" t="s">
-        <v>106</v>
+      <c r="A114" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -4500,7 +4498,7 @@
     </row>
     <row r="115" spans="1:27" s="14" customFormat="1">
       <c r="A115" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -4531,7 +4529,7 @@
     </row>
     <row r="116" spans="1:27" s="14" customFormat="1">
       <c r="A116" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -4562,7 +4560,7 @@
     </row>
     <row r="117" spans="1:27" s="14" customFormat="1">
       <c r="A117" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -4592,8 +4590,8 @@
       <c r="AA117" s="13"/>
     </row>
     <row r="118" spans="1:27">
-      <c r="A118" s="2" t="s">
-        <v>110</v>
+      <c r="A118" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4623,8 +4621,8 @@
       <c r="AA118" s="2"/>
     </row>
     <row r="119" spans="1:27" s="14" customFormat="1">
-      <c r="A119" s="13" t="s">
-        <v>111</v>
+      <c r="A119" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -4654,8 +4652,8 @@
       <c r="AA119" s="13"/>
     </row>
     <row r="120" spans="1:27">
-      <c r="A120" s="2" t="s">
-        <v>112</v>
+      <c r="A120" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4686,7 +4684,7 @@
     </row>
     <row r="121" spans="1:27">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4717,7 +4715,7 @@
     </row>
     <row r="122" spans="1:27">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4748,7 +4746,7 @@
     </row>
     <row r="123" spans="1:27">
       <c r="A123" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4778,7 +4776,9 @@
       <c r="AA123" s="2"/>
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A124" s="7"/>
+      <c r="A124" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="B124" s="7"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -4806,10 +4806,8 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
     </row>
-    <row r="125" spans="1:27">
-      <c r="A125" s="2" t="s">
-        <v>116</v>
-      </c>
+    <row r="125" spans="1:27" ht="15.75">
+      <c r="A125" s="7"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -4839,7 +4837,7 @@
     </row>
     <row r="126" spans="1:27">
       <c r="A126" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4870,7 +4868,7 @@
     </row>
     <row r="127" spans="1:27">
       <c r="A127" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4900,7 +4898,9 @@
       <c r="AA127" s="2"/>
     </row>
     <row r="128" spans="1:27">
-      <c r="A128" s="2"/>
+      <c r="A128" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -4929,7 +4929,7 @@
       <c r="AA128" s="2"/>
     </row>
     <row r="129" spans="1:27">
-      <c r="A129" s="8"/>
+      <c r="A129" s="2"/>
       <c r="B129" s="4"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -4958,9 +4958,7 @@
       <c r="AA129" s="2"/>
     </row>
     <row r="130" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A130" s="15" t="s">
-        <v>119</v>
-      </c>
+      <c r="A130" s="8"/>
       <c r="B130" s="9"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -4989,7 +4987,9 @@
       <c r="AA130" s="2"/>
     </row>
     <row r="131" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A131" s="9"/>
+      <c r="A131" s="15" t="s">
+        <v>119</v>
+      </c>
       <c r="B131" s="9"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -5018,9 +5018,7 @@
       <c r="AA131" s="2"/>
     </row>
     <row r="132" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A132" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -5049,7 +5047,9 @@
       <c r="AA132" s="2"/>
     </row>
     <row r="133" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A133" s="9"/>
+      <c r="A133" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="B133" s="9"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -5078,9 +5078,7 @@
       <c r="AA133" s="2"/>
     </row>
     <row r="134" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A134" s="9" t="s">
-        <v>121</v>
-      </c>
+      <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -5109,7 +5107,9 @@
       <c r="AA134" s="2"/>
     </row>
     <row r="135" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A135" s="9"/>
+      <c r="A135" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="B135" s="9"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -5138,9 +5138,7 @@
       <c r="AA135" s="2"/>
     </row>
     <row r="136" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A136" s="15" t="s">
-        <v>122</v>
-      </c>
+      <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -5169,7 +5167,9 @@
       <c r="AA136" s="2"/>
     </row>
     <row r="137" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A137" s="9"/>
+      <c r="A137" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="B137" s="9"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -5198,9 +5198,7 @@
       <c r="AA137" s="2"/>
     </row>
     <row r="138" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A138" s="15" t="s">
-        <v>123</v>
-      </c>
+      <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -5229,7 +5227,9 @@
       <c r="AA138" s="2"/>
     </row>
     <row r="139" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A139" s="9"/>
+      <c r="A139" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="B139" s="9"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -5258,9 +5258,7 @@
       <c r="AA139" s="2"/>
     </row>
     <row r="140" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A140" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -5289,7 +5287,9 @@
       <c r="AA140" s="2"/>
     </row>
     <row r="141" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A141" s="9"/>
+      <c r="A141" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="B141" s="9"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -5318,9 +5318,7 @@
       <c r="AA141" s="2"/>
     </row>
     <row r="142" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A142" s="15" t="s">
-        <v>124</v>
-      </c>
+      <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -5349,7 +5347,9 @@
       <c r="AA142" s="2"/>
     </row>
     <row r="143" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A143" s="9"/>
+      <c r="A143" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="B143" s="9"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -5378,9 +5378,7 @@
       <c r="AA143" s="2"/>
     </row>
     <row r="144" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A144" s="15" t="s">
-        <v>125</v>
-      </c>
+      <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -5409,7 +5407,9 @@
       <c r="AA144" s="2"/>
     </row>
     <row r="145" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A145" s="9"/>
+      <c r="A145" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="B145" s="9"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -5438,9 +5438,7 @@
       <c r="AA145" s="2"/>
     </row>
     <row r="146" spans="1:27">
-      <c r="A146" s="13" t="s">
-        <v>126</v>
-      </c>
+      <c r="A146" s="9"/>
       <c r="B146" s="10"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -5469,7 +5467,9 @@
       <c r="AA146" s="2"/>
     </row>
     <row r="147" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A147" s="9"/>
+      <c r="A147" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="B147" s="9"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -5498,9 +5498,7 @@
       <c r="AA147" s="2"/>
     </row>
     <row r="148" spans="1:27">
-      <c r="A148" s="13" t="s">
-        <v>127</v>
-      </c>
+      <c r="A148" s="9"/>
       <c r="B148" s="10"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -5529,7 +5527,9 @@
       <c r="AA148" s="2"/>
     </row>
     <row r="149" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A149" s="9"/>
+      <c r="A149" s="13" t="s">
+        <v>127</v>
+      </c>
       <c r="B149" s="9"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -5558,9 +5558,7 @@
       <c r="AA149" s="2"/>
     </row>
     <row r="150" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A150" s="15" t="s">
-        <v>128</v>
-      </c>
+      <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -5589,7 +5587,9 @@
       <c r="AA150" s="2"/>
     </row>
     <row r="151" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A151" s="9"/>
+      <c r="A151" s="15" t="s">
+        <v>128</v>
+      </c>
       <c r="B151" s="9"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -5618,9 +5618,7 @@
       <c r="AA151" s="2"/>
     </row>
     <row r="152" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A152" s="15" t="s">
-        <v>129</v>
-      </c>
+      <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -5649,7 +5647,9 @@
       <c r="AA152" s="2"/>
     </row>
     <row r="153" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A153" s="9"/>
+      <c r="A153" s="15" t="s">
+        <v>129</v>
+      </c>
       <c r="B153" s="9"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -5678,9 +5678,7 @@
       <c r="AA153" s="2"/>
     </row>
     <row r="154" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A154" s="15" t="s">
-        <v>130</v>
-      </c>
+      <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -5709,7 +5707,9 @@
       <c r="AA154" s="2"/>
     </row>
     <row r="155" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A155" s="9"/>
+      <c r="A155" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="B155" s="9"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -5738,9 +5738,7 @@
       <c r="AA155" s="2"/>
     </row>
     <row r="156" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A156" s="15" t="s">
-        <v>131</v>
-      </c>
+      <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -5769,7 +5767,9 @@
       <c r="AA156" s="2"/>
     </row>
     <row r="157" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A157" s="9"/>
+      <c r="A157" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="B157" s="9"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -5798,9 +5798,7 @@
       <c r="AA157" s="2"/>
     </row>
     <row r="158" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A158" s="15" t="s">
-        <v>132</v>
-      </c>
+      <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -5829,7 +5827,9 @@
       <c r="AA158" s="2"/>
     </row>
     <row r="159" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A159" s="9"/>
+      <c r="A159" s="15" t="s">
+        <v>132</v>
+      </c>
       <c r="B159" s="9"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -5858,9 +5858,7 @@
       <c r="AA159" s="2"/>
     </row>
     <row r="160" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A160" s="15" t="s">
-        <v>133</v>
-      </c>
+      <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -5889,7 +5887,9 @@
       <c r="AA160" s="2"/>
     </row>
     <row r="161" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A161" s="9"/>
+      <c r="A161" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="B161" s="9"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -5918,9 +5918,7 @@
       <c r="AA161" s="2"/>
     </row>
     <row r="162" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A162" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -5949,7 +5947,9 @@
       <c r="AA162" s="2"/>
     </row>
     <row r="163" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A163" s="9"/>
+      <c r="A163" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="B163" s="9"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -5978,9 +5978,7 @@
       <c r="AA163" s="2"/>
     </row>
     <row r="164" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A164" s="9" t="s">
-        <v>135</v>
-      </c>
+      <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -6009,7 +6007,9 @@
       <c r="AA164" s="2"/>
     </row>
     <row r="165" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A165" s="9"/>
+      <c r="A165" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="B165" s="9"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -6038,9 +6038,7 @@
       <c r="AA165" s="2"/>
     </row>
     <row r="166" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A166" s="9" t="s">
-        <v>136</v>
-      </c>
+      <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -6069,7 +6067,9 @@
       <c r="AA166" s="2"/>
     </row>
     <row r="167" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A167" s="9"/>
+      <c r="A167" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="B167" s="9"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -6098,9 +6098,7 @@
       <c r="AA167" s="2"/>
     </row>
     <row r="168" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A168" s="15" t="s">
-        <v>137</v>
-      </c>
+      <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -6129,7 +6127,9 @@
       <c r="AA168" s="2"/>
     </row>
     <row r="169" spans="1:27">
-      <c r="A169" s="2"/>
+      <c r="A169" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -6187,9 +6187,7 @@
       <c r="AA170" s="2"/>
     </row>
     <row r="171" spans="1:27">
-      <c r="A171" s="11" t="s">
-        <v>138</v>
-      </c>
+      <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -6219,7 +6217,7 @@
     </row>
     <row r="172" spans="1:27">
       <c r="A172" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6250,7 +6248,7 @@
     </row>
     <row r="173" spans="1:27">
       <c r="A173" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6280,8 +6278,8 @@
       <c r="AA173" s="2"/>
     </row>
     <row r="174" spans="1:27">
-      <c r="A174" s="12" t="s">
-        <v>141</v>
+      <c r="A174" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6311,8 +6309,8 @@
       <c r="AA174" s="2"/>
     </row>
     <row r="175" spans="1:27">
-      <c r="A175" s="11" t="s">
-        <v>142</v>
+      <c r="A175" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6343,7 +6341,7 @@
     </row>
     <row r="176" spans="1:27">
       <c r="A176" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>152</v>
@@ -6375,8 +6373,8 @@
       <c r="AA176" s="2"/>
     </row>
     <row r="177" spans="1:27" s="14" customFormat="1">
-      <c r="A177" s="12" t="s">
-        <v>144</v>
+      <c r="A177" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -6406,8 +6404,8 @@
       <c r="AA177" s="13"/>
     </row>
     <row r="178" spans="1:27">
-      <c r="A178" s="11" t="s">
-        <v>145</v>
+      <c r="A178" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6437,8 +6435,8 @@
       <c r="AA178" s="2"/>
     </row>
     <row r="179" spans="1:27" s="14" customFormat="1">
-      <c r="A179" s="12" t="s">
-        <v>146</v>
+      <c r="A179" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="B179" s="13" t="s">
         <v>153</v>
@@ -6470,8 +6468,8 @@
       <c r="AA179" s="13"/>
     </row>
     <row r="180" spans="1:27">
-      <c r="A180" s="11" t="s">
-        <v>147</v>
+      <c r="A180" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6501,8 +6499,8 @@
       <c r="AA180" s="2"/>
     </row>
     <row r="181" spans="1:27">
-      <c r="A181" s="12" t="s">
-        <v>148</v>
+      <c r="A181" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>154</v>
@@ -6534,7 +6532,9 @@
       <c r="AA181" s="2"/>
     </row>
     <row r="182" spans="1:27">
-      <c r="A182" s="2"/>
+      <c r="A182" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -30342,6 +30342,9 @@
       <c r="Z1002" s="2"/>
       <c r="AA1002" s="2"/>
     </row>
+    <row r="1003" spans="1:27">
+      <c r="A1003" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/interview/AngularQuestions_updated.xlsx
+++ b/interview/AngularQuestions_updated.xlsx
@@ -68,16 +68,10 @@
     <t>Error Handling in observables.</t>
   </si>
   <si>
-    <t>Observables subscribing and unsubscribing. (When to unsubscribe. how to unsubscribe, why unsubscribe, and more tricky questions around this.)</t>
-  </si>
-  <si>
     <t>Pipe with observable to use rxjs operator.</t>
   </si>
   <si>
     <t>Challenges faced in current project and how to overcome that.</t>
-  </si>
-  <si>
-    <t>If method containing subscribe called again and again, what will happen ? Will be subscribed multiple times? If no how does angular handle it ?​</t>
   </si>
   <si>
     <t>How to update angular to upper versions ?</t>
@@ -90,9 +84,6 @@
   </si>
   <si>
     <t>How the execution of method having subscribe method is done by angular?</t>
-  </si>
-  <si>
-    <t>Observables are asynchronous, can you call unsubscribe after subscribe in the same method…at what point you can call unsubscribe or any other way?</t>
   </si>
   <si>
     <t>Changes/improvements in Angular with different versions</t>
@@ -493,6 +484,18 @@
   <si>
     <t>SSL, SQL Injection Prevention, Prevent CORS</t>
   </si>
+  <si>
+    <t>Observables subscribing and unsubscribing. (When to unsubscribe. how to unsubscribe, why unsubscribe, and more
+ tricky questions around this.)</t>
+  </si>
+  <si>
+    <t>If method containing subscribe called again and again, what will happen ? Will be subscribed multiple times? If no how
+ does angular handle it ?​</t>
+  </si>
+  <si>
+    <t>Observables are asynchronous, can you call unsubscribe after subscribe in the same method…at what point 
+you can call unsubscribe or any other way?</t>
+  </si>
 </sst>
 </file>
 
@@ -615,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -644,6 +647,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,7 +960,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -961,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -1404,9 +1413,9 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
+    <row r="15" spans="1:27" ht="43.5">
+      <c r="A15" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1437,7 +1446,7 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1468,7 +1477,7 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1497,9 +1506,9 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="1:27">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
+    <row r="18" spans="1:27" ht="43.5">
+      <c r="A18" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -1530,7 +1539,7 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -1561,7 +1570,7 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -1592,7 +1601,7 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -1623,7 +1632,7 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1652,9 +1661,9 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="1:27">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
+    <row r="23" spans="1:27" ht="29.25">
+      <c r="A23" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1685,7 +1694,7 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1716,7 +1725,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1747,7 +1756,7 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1778,7 +1787,7 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1809,7 +1818,7 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1840,7 +1849,7 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1871,7 +1880,7 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1902,7 +1911,7 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1933,7 +1942,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1964,7 +1973,7 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1995,7 +2004,7 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2026,7 +2035,7 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2057,7 +2066,7 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2088,7 +2097,7 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2119,7 +2128,7 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2150,7 +2159,7 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2181,7 +2190,7 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2212,7 +2221,7 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2243,7 +2252,7 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2274,7 +2283,7 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2305,7 +2314,7 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2336,7 +2345,7 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2367,7 +2376,7 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2398,7 +2407,7 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2429,7 +2438,7 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2460,7 +2469,7 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2491,7 +2500,7 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2522,7 +2531,7 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2553,7 +2562,7 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2584,7 +2593,7 @@
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2615,7 +2624,7 @@
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2646,7 +2655,7 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2677,7 +2686,7 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2708,7 +2717,7 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2739,7 +2748,7 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2770,7 +2779,7 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2801,7 +2810,7 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2832,7 +2841,7 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2892,7 +2901,7 @@
     </row>
     <row r="63" spans="1:27" ht="15.75" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="2"/>
@@ -2952,7 +2961,7 @@
     </row>
     <row r="65" spans="1:27">
       <c r="A65" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2983,7 +2992,7 @@
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3014,7 +3023,7 @@
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3045,7 +3054,7 @@
     </row>
     <row r="68" spans="1:27">
       <c r="A68" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3076,7 +3085,7 @@
     </row>
     <row r="69" spans="1:27">
       <c r="A69" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3107,7 +3116,7 @@
     </row>
     <row r="70" spans="1:27">
       <c r="A70" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3138,7 +3147,7 @@
     </row>
     <row r="71" spans="1:27">
       <c r="A71" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3169,7 +3178,7 @@
     </row>
     <row r="72" spans="1:27">
       <c r="A72" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3200,7 +3209,7 @@
     </row>
     <row r="73" spans="1:27">
       <c r="A73" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3231,7 +3240,7 @@
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3262,7 +3271,7 @@
     </row>
     <row r="75" spans="1:27">
       <c r="A75" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3293,7 +3302,7 @@
     </row>
     <row r="76" spans="1:27">
       <c r="A76" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3324,7 +3333,7 @@
     </row>
     <row r="77" spans="1:27">
       <c r="A77" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3355,7 +3364,7 @@
     </row>
     <row r="78" spans="1:27">
       <c r="A78" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3386,7 +3395,7 @@
     </row>
     <row r="79" spans="1:27">
       <c r="A79" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3417,7 +3426,7 @@
     </row>
     <row r="80" spans="1:27">
       <c r="A80" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3448,7 +3457,7 @@
     </row>
     <row r="81" spans="1:27">
       <c r="A81" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3479,7 +3488,7 @@
     </row>
     <row r="82" spans="1:27">
       <c r="A82" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3510,7 +3519,7 @@
     </row>
     <row r="83" spans="1:27">
       <c r="A83" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3541,7 +3550,7 @@
     </row>
     <row r="84" spans="1:27">
       <c r="A84" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3572,7 +3581,7 @@
     </row>
     <row r="85" spans="1:27">
       <c r="A85" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3603,7 +3612,7 @@
     </row>
     <row r="86" spans="1:27">
       <c r="A86" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3634,7 +3643,7 @@
     </row>
     <row r="87" spans="1:27">
       <c r="A87" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3665,7 +3674,7 @@
     </row>
     <row r="88" spans="1:27">
       <c r="A88" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3696,7 +3705,7 @@
     </row>
     <row r="89" spans="1:27">
       <c r="A89" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3727,7 +3736,7 @@
     </row>
     <row r="90" spans="1:27">
       <c r="A90" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3758,7 +3767,7 @@
     </row>
     <row r="91" spans="1:27">
       <c r="A91" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3789,7 +3798,7 @@
     </row>
     <row r="92" spans="1:27">
       <c r="A92" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3820,7 +3829,7 @@
     </row>
     <row r="93" spans="1:27">
       <c r="A93" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -3851,7 +3860,7 @@
     </row>
     <row r="94" spans="1:27">
       <c r="A94" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="2"/>
@@ -3882,7 +3891,7 @@
     </row>
     <row r="95" spans="1:27">
       <c r="A95" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3913,7 +3922,7 @@
     </row>
     <row r="96" spans="1:27">
       <c r="A96" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3944,7 +3953,7 @@
     </row>
     <row r="97" spans="1:27">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3975,7 +3984,7 @@
     </row>
     <row r="98" spans="1:27">
       <c r="A98" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4006,7 +4015,7 @@
     </row>
     <row r="99" spans="1:27" s="14" customFormat="1">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -4037,7 +4046,7 @@
     </row>
     <row r="100" spans="1:27">
       <c r="A100" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4068,7 +4077,7 @@
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="2"/>
@@ -4128,7 +4137,7 @@
     </row>
     <row r="103" spans="1:27">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4159,7 +4168,7 @@
     </row>
     <row r="104" spans="1:27">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4190,7 +4199,7 @@
     </row>
     <row r="105" spans="1:27">
       <c r="A105" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4221,7 +4230,7 @@
     </row>
     <row r="106" spans="1:27">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4252,7 +4261,7 @@
     </row>
     <row r="107" spans="1:27" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="2"/>
@@ -4312,7 +4321,7 @@
     </row>
     <row r="109" spans="1:27">
       <c r="A109" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4343,7 +4352,7 @@
     </row>
     <row r="110" spans="1:27">
       <c r="A110" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4374,7 +4383,7 @@
     </row>
     <row r="111" spans="1:27" s="14" customFormat="1">
       <c r="A111" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -4405,7 +4414,7 @@
     </row>
     <row r="112" spans="1:27" s="14" customFormat="1">
       <c r="A112" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -4436,7 +4445,7 @@
     </row>
     <row r="113" spans="1:27">
       <c r="A113" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4467,7 +4476,7 @@
     </row>
     <row r="114" spans="1:27" s="14" customFormat="1">
       <c r="A114" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -4498,7 +4507,7 @@
     </row>
     <row r="115" spans="1:27" s="14" customFormat="1">
       <c r="A115" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -4529,7 +4538,7 @@
     </row>
     <row r="116" spans="1:27" s="14" customFormat="1">
       <c r="A116" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -4560,7 +4569,7 @@
     </row>
     <row r="117" spans="1:27" s="14" customFormat="1">
       <c r="A117" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -4591,7 +4600,7 @@
     </row>
     <row r="118" spans="1:27">
       <c r="A118" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4622,7 +4631,7 @@
     </row>
     <row r="119" spans="1:27" s="14" customFormat="1">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -4653,7 +4662,7 @@
     </row>
     <row r="120" spans="1:27">
       <c r="A120" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4684,7 +4693,7 @@
     </row>
     <row r="121" spans="1:27">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4715,7 +4724,7 @@
     </row>
     <row r="122" spans="1:27">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4746,7 +4755,7 @@
     </row>
     <row r="123" spans="1:27">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4777,7 +4786,7 @@
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="2"/>
@@ -4837,7 +4846,7 @@
     </row>
     <row r="126" spans="1:27">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4868,7 +4877,7 @@
     </row>
     <row r="127" spans="1:27">
       <c r="A127" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4899,7 +4908,7 @@
     </row>
     <row r="128" spans="1:27">
       <c r="A128" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4988,7 +4997,7 @@
     </row>
     <row r="131" spans="1:27" ht="15.75" customHeight="1">
       <c r="A131" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B131" s="9"/>
       <c r="C131" s="2"/>
@@ -5048,7 +5057,7 @@
     </row>
     <row r="133" spans="1:27" ht="15.75" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B133" s="9"/>
       <c r="C133" s="2"/>
@@ -5108,7 +5117,7 @@
     </row>
     <row r="135" spans="1:27" ht="15.75" customHeight="1">
       <c r="A135" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B135" s="9"/>
       <c r="C135" s="2"/>
@@ -5168,7 +5177,7 @@
     </row>
     <row r="137" spans="1:27" ht="15.75" customHeight="1">
       <c r="A137" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B137" s="9"/>
       <c r="C137" s="2"/>
@@ -5228,7 +5237,7 @@
     </row>
     <row r="139" spans="1:27" ht="15.75" customHeight="1">
       <c r="A139" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B139" s="9"/>
       <c r="C139" s="2"/>
@@ -5348,7 +5357,7 @@
     </row>
     <row r="143" spans="1:27" ht="15.75" customHeight="1">
       <c r="A143" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B143" s="9"/>
       <c r="C143" s="2"/>
@@ -5408,7 +5417,7 @@
     </row>
     <row r="145" spans="1:27" ht="15.75" customHeight="1">
       <c r="A145" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B145" s="9"/>
       <c r="C145" s="2"/>
@@ -5468,7 +5477,7 @@
     </row>
     <row r="147" spans="1:27" ht="15.75" customHeight="1">
       <c r="A147" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B147" s="9"/>
       <c r="C147" s="2"/>
@@ -5528,7 +5537,7 @@
     </row>
     <row r="149" spans="1:27" ht="15.75" customHeight="1">
       <c r="A149" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B149" s="9"/>
       <c r="C149" s="2"/>
@@ -5588,7 +5597,7 @@
     </row>
     <row r="151" spans="1:27" ht="15.75" customHeight="1">
       <c r="A151" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="2"/>
@@ -5648,7 +5657,7 @@
     </row>
     <row r="153" spans="1:27" ht="15.75" customHeight="1">
       <c r="A153" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B153" s="9"/>
       <c r="C153" s="2"/>
@@ -5708,7 +5717,7 @@
     </row>
     <row r="155" spans="1:27" ht="15.75" customHeight="1">
       <c r="A155" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B155" s="9"/>
       <c r="C155" s="2"/>
@@ -5768,7 +5777,7 @@
     </row>
     <row r="157" spans="1:27" ht="15.75" customHeight="1">
       <c r="A157" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B157" s="9"/>
       <c r="C157" s="2"/>
@@ -5828,7 +5837,7 @@
     </row>
     <row r="159" spans="1:27" ht="15.75" customHeight="1">
       <c r="A159" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B159" s="9"/>
       <c r="C159" s="2"/>
@@ -5888,7 +5897,7 @@
     </row>
     <row r="161" spans="1:27" ht="15.75" customHeight="1">
       <c r="A161" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B161" s="9"/>
       <c r="C161" s="2"/>
@@ -5948,7 +5957,7 @@
     </row>
     <row r="163" spans="1:27" ht="15.75" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B163" s="9"/>
       <c r="C163" s="2"/>
@@ -6008,7 +6017,7 @@
     </row>
     <row r="165" spans="1:27" ht="15.75" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B165" s="9"/>
       <c r="C165" s="2"/>
@@ -6068,7 +6077,7 @@
     </row>
     <row r="167" spans="1:27" ht="15.75" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B167" s="9"/>
       <c r="C167" s="2"/>
@@ -6128,7 +6137,7 @@
     </row>
     <row r="169" spans="1:27">
       <c r="A169" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6217,7 +6226,7 @@
     </row>
     <row r="172" spans="1:27">
       <c r="A172" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6248,7 +6257,7 @@
     </row>
     <row r="173" spans="1:27">
       <c r="A173" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6279,7 +6288,7 @@
     </row>
     <row r="174" spans="1:27">
       <c r="A174" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6310,7 +6319,7 @@
     </row>
     <row r="175" spans="1:27">
       <c r="A175" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6341,10 +6350,10 @@
     </row>
     <row r="176" spans="1:27">
       <c r="A176" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -6374,7 +6383,7 @@
     </row>
     <row r="177" spans="1:27" s="14" customFormat="1">
       <c r="A177" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -6405,7 +6414,7 @@
     </row>
     <row r="178" spans="1:27">
       <c r="A178" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6436,10 +6445,10 @@
     </row>
     <row r="179" spans="1:27" s="14" customFormat="1">
       <c r="A179" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
@@ -6469,7 +6478,7 @@
     </row>
     <row r="180" spans="1:27">
       <c r="A180" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6500,10 +6509,10 @@
     </row>
     <row r="181" spans="1:27">
       <c r="A181" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -6533,7 +6542,7 @@
     </row>
     <row r="182" spans="1:27">
       <c r="A182" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
